--- a/mathTransformed/HMPSTT_(2015-12-21)_36_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-12-21)_36_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -471,7 +476,8 @@
           <t>NAMES</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
@@ -500,6 +506,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Adarsha Vidyalaya Kollegal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Chamarajnagar</t>
         </is>
       </c>
@@ -527,6 +538,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Vijay High School KadangaArapattuMadikeri</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Kodagu</t>
         </is>
       </c>
@@ -556,6 +572,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Srimangala High SchoolSrimangala</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>South Kodagu</t>
         </is>
       </c>
@@ -583,6 +604,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Govt. High School PollibettaVirajpet</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Kodagu</t>
         </is>
       </c>
@@ -610,6 +636,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H S GalibeeduMadikeri</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Kodagu</t>
         </is>
       </c>
@@ -637,6 +668,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H S MaldareVirajpet</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Kodagu</t>
         </is>
       </c>
@@ -666,6 +702,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>G H S BesurSomwarpet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Kodagu</t>
         </is>
       </c>
@@ -695,6 +736,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Gonikoppal High School Gonikoppal</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Kodagu</t>
         </is>
       </c>
@@ -722,6 +768,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Rural High School PalyaKollegal</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Chamarajanagar</t>
         </is>
       </c>
@@ -749,6 +800,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Janatha High SchoolHudikeri</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Kodagu</t>
         </is>
       </c>
@@ -776,6 +832,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Bharathi Vidya SamstheShanivarasanthe</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>North Coorg</t>
         </is>
       </c>
@@ -803,6 +864,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H P School ChikkathuruSomwarpet</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Kodagu</t>
         </is>
       </c>
@@ -832,6 +898,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>S G M High School BhogainahundiGundalupet</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Chamagarajnagar</t>
         </is>
       </c>
@@ -859,6 +930,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H SKesturYelandur</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Chamarajnagar</t>
         </is>
       </c>
@@ -886,6 +962,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Parane High School ParaneMadikerei</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Kodagu</t>
         </is>
       </c>
@@ -913,6 +994,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S Chembu Madikeri</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Kodagu</t>
         </is>
       </c>
@@ -940,6 +1026,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>J P N High School Virajpet</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Kodagu</t>
         </is>
       </c>
@@ -967,6 +1058,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Udaya High SchoolBettageriMadikeri</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Kodagu</t>
         </is>
       </c>
@@ -994,6 +1090,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G HS Sagade</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Chamarajanagar</t>
         </is>
       </c>
@@ -1021,6 +1122,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G M P SchoolSiddapurMadikeri</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Kodagu</t>
         </is>
       </c>
@@ -1048,6 +1154,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G H P S Nelliyahudi keriSomawarpet</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Kodagu</t>
         </is>
       </c>
@@ -1075,6 +1186,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>JSS High SchoolGowdahalliYelandur</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Chamarajanagar</t>
         </is>
       </c>
@@ -1102,6 +1218,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>T G T G H P S ChenankoteVirjpet</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Kodagu</t>
         </is>
       </c>
@@ -1129,6 +1250,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S HeggalaVirajpet</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>South Kodagu</t>
         </is>
       </c>
@@ -1156,6 +1282,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>J SS High School MudigundaKollegala</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Chamarajanagara</t>
         </is>
       </c>
@@ -1183,6 +1314,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G H S MaralliHanur BlockKollegal</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Chamarajanagar</t>
         </is>
       </c>
@@ -1210,6 +1346,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G H S MaddurYelandur</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Chamarajanagar</t>
         </is>
       </c>
@@ -1237,6 +1378,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Govt High School NIREGundalpet</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Chamarajanagar Nagar</t>
         </is>
       </c>
@@ -1264,6 +1410,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Govt. High School ShirangalaSomwarpet</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Kodagu</t>
         </is>
       </c>
@@ -1291,6 +1442,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G P U CollegeHigh School SectionMadikeri</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Kodagu</t>
         </is>
       </c>
@@ -1318,6 +1474,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G H S ChikkatuppurGundlupet</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Chamarajanagar</t>
         </is>
       </c>
@@ -1347,6 +1508,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G H S MamballiYelandur</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Chamarajanagar</t>
         </is>
       </c>
@@ -1374,6 +1540,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>T S S S High School AgaraYelandur</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Chamarajanagar</t>
         </is>
       </c>
@@ -1401,6 +1572,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G P U CollegeVenkataiahnachatra</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Chamarajanagar</t>
         </is>
       </c>
@@ -1430,6 +1606,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>K L High SchoolShanthalliSomwarpet</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Kodagu</t>
         </is>
       </c>
@@ -1456,6 +1637,11 @@
         </is>
       </c>
       <c r="F39" t="inlineStr">
+        <is>
+          <t>K b High School KuttandiVirajpet</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>Kodagu</t>
         </is>

--- a/mathTransformed/HMPSTT_(2015-12-21)_36_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-12-21)_36_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,6 @@
           <t>NAMES</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>NAME</t>
@@ -511,7 +510,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Chamarajnagar</t>
+          <t>Chamarajanagar</t>
         </is>
       </c>
     </row>
@@ -577,7 +576,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>South Kodagu</t>
+          <t>Kodagu</t>
         </is>
       </c>
     </row>
@@ -837,7 +836,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>North Coorg</t>
+          <t>Kodagu</t>
         </is>
       </c>
     </row>
@@ -903,7 +902,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chamagarajnagar</t>
+          <t>Chamarajanagar</t>
         </is>
       </c>
     </row>
@@ -935,7 +934,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chamarajnagar</t>
+          <t>Chamarajanagar</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1254,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>South Kodagu</t>
+          <t>Kodagu</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1286,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Chamarajanagara</t>
+          <t>Chamarajanagar</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1382,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Chamarajanagar Nagar</t>
+          <t>Chamarajanagar</t>
         </is>
       </c>
     </row>
